--- a/tmp/temp.xlsx
+++ b/tmp/temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="2990" windowWidth="10800" windowHeight="7810" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9300" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="五四青年科学奖立项申请表" sheetId="1" state="visible" r:id="rId1"/>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -90,7 +90,6 @@
     <font>
       <name val="楷体"/>
       <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
@@ -111,12 +110,150 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -129,8 +266,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -140,7 +463,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -149,14 +472,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -164,20 +487,20 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -186,14 +509,14 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -202,12 +525,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -216,30 +539,30 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -247,7 +570,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -256,21 +579,263 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,12 +851,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,6 +884,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,6 +898,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -356,51 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -409,8 +959,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -801,7 +1399,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -813,370 +1410,370 @@
   </sheetPr>
   <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.7265625" customWidth="1" style="21" min="1" max="1"/>
-    <col width="47.6328125" customWidth="1" style="21" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="21" min="3" max="3"/>
-    <col width="19" customWidth="1" style="21" min="4" max="4"/>
-    <col width="9.453125" customWidth="1" style="21" min="5" max="5"/>
-    <col width="23.1796875" customWidth="1" style="21" min="6" max="6"/>
-    <col width="11.7265625" customWidth="1" style="21" min="7" max="7"/>
-    <col width="25.1796875" customWidth="1" style="21" min="8" max="8"/>
-    <col width="21.453125" customWidth="1" style="21" min="13" max="13"/>
-    <col width="17.1796875" customWidth="1" style="21" min="16" max="16"/>
-    <col width="10" customWidth="1" style="21" min="20" max="20"/>
-    <col width="18.90625" customWidth="1" style="21" min="21" max="22"/>
+    <col width="14.6944444444444" customWidth="1" style="31" min="1" max="1"/>
+    <col width="47.6111111111111" customWidth="1" style="31" min="2" max="2"/>
+    <col width="15.1481481481481" customWidth="1" style="31" min="3" max="3"/>
+    <col width="19" customWidth="1" style="31" min="4" max="4"/>
+    <col width="9.46296296296296" customWidth="1" style="31" min="5" max="5"/>
+    <col width="23.1481481481481" customWidth="1" style="31" min="6" max="6"/>
+    <col width="11.6944444444444" customWidth="1" style="31" min="7" max="7"/>
+    <col width="25.1481481481481" customWidth="1" style="31" min="8" max="8"/>
+    <col width="21.4444444444444" customWidth="1" style="31" min="13" max="13"/>
+    <col width="17.1481481481481" customWidth="1" style="31" min="16" max="16"/>
+    <col width="10" customWidth="1" style="31" min="20" max="20"/>
+    <col width="18.9259259259259" customWidth="1" style="31" min="21" max="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" s="21"/>
-    <row r="2" ht="14" customHeight="1" s="21">
-      <c r="A2" s="30" t="inlineStr">
+    <row r="1" ht="14.05" customHeight="1" s="31"/>
+    <row r="2" ht="14.05" customHeight="1" s="31">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>请以学院为单位汇总完成此Excel后提交至pku62747382@163.com；文件命名方式：五四青年科学奖+院系名称</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1" s="21">
-      <c r="A3" s="32" t="inlineStr">
+    <row r="3" ht="14.05" customHeight="1" s="31">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">北京大学第31届挑战杯  五四青年科学奖  立项信息登记表  </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.5" customHeight="1" s="21"/>
-    <row r="5" ht="16.25" customFormat="1" customHeight="1" s="44">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="4" ht="15.55" customHeight="1" s="31"/>
+    <row r="5" ht="16.3" customFormat="1" customHeight="1" s="18">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>作品题目</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>参赛类别</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>作品学科分类</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>学科门类</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>一级学科</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
         <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>是否为团队负责人</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>性别</t>
         </is>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J5" s="10" t="inlineStr">
         <is>
           <t>生源地</t>
         </is>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="10" t="inlineStr">
         <is>
           <t>学号</t>
         </is>
       </c>
-      <c r="L5" s="6" t="inlineStr">
+      <c r="L5" s="10" t="inlineStr">
         <is>
           <t>所在院系</t>
         </is>
       </c>
-      <c r="M5" s="6" t="inlineStr">
+      <c r="M5" s="10" t="inlineStr">
         <is>
           <t>年级（如2020级本科生/硕士生/博士生）</t>
         </is>
       </c>
-      <c r="N5" s="6" t="inlineStr">
+      <c r="N5" s="10" t="inlineStr">
         <is>
           <t>手机</t>
         </is>
       </c>
-      <c r="O5" s="6" t="inlineStr">
+      <c r="O5" s="10" t="inlineStr">
         <is>
           <t>微信号</t>
         </is>
       </c>
-      <c r="P5" s="6" t="inlineStr">
+      <c r="P5" s="10" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="Q5" s="6" t="inlineStr">
+      <c r="Q5" s="10" t="inlineStr">
         <is>
           <t>指导教师姓名</t>
         </is>
       </c>
-      <c r="R5" s="6" t="inlineStr">
+      <c r="R5" s="10" t="inlineStr">
         <is>
           <t>指导教师性别</t>
         </is>
       </c>
-      <c r="S5" s="6" t="inlineStr">
+      <c r="S5" s="10" t="inlineStr">
         <is>
           <t>指导教师所在院系</t>
         </is>
       </c>
-      <c r="T5" s="6" t="inlineStr">
+      <c r="T5" s="10" t="inlineStr">
         <is>
           <t>指导教师职称/职务</t>
         </is>
       </c>
-      <c r="U5" s="6" t="inlineStr">
+      <c r="U5" s="10" t="inlineStr">
         <is>
           <t>指导教师电话</t>
         </is>
       </c>
-      <c r="V5" s="22" t="inlineStr">
+      <c r="V5" s="32" t="inlineStr">
         <is>
           <t>指导教师电子邮箱</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1" s="21">
-      <c r="A6" s="5" t="n">
+    <row r="6" ht="14.05" customHeight="1" s="31">
+      <c r="A6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="n"/>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>历史学</t>
         </is>
       </c>
-      <c r="F6" s="41" t="n"/>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="9" t="n"/>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="9" t="n"/>
-      <c r="K6" s="9" t="n"/>
-      <c r="L6" s="9" t="n"/>
-      <c r="M6" s="9" t="n"/>
-      <c r="N6" s="9" t="n"/>
-      <c r="O6" s="9" t="n"/>
-      <c r="P6" s="9" t="n"/>
-      <c r="Q6" s="9" t="n"/>
-      <c r="R6" s="9" t="n"/>
-      <c r="S6" s="9" t="n"/>
-      <c r="T6" s="9" t="n"/>
-      <c r="U6" s="9" t="n"/>
-      <c r="V6" s="23" t="n"/>
-    </row>
-    <row r="7" ht="14" customHeight="1" s="21">
-      <c r="A7" s="46" t="n"/>
-      <c r="G7" s="29" t="n"/>
-      <c r="H7" s="29" t="n"/>
-      <c r="J7" s="29" t="n"/>
-      <c r="K7" s="29" t="n"/>
-      <c r="L7" s="29" t="n"/>
-      <c r="M7" s="29" t="n"/>
-      <c r="N7" s="29" t="n"/>
-      <c r="O7" s="29" t="n"/>
-      <c r="P7" s="29" t="n"/>
-      <c r="Q7" s="29" t="n"/>
-      <c r="R7" s="29" t="n"/>
-      <c r="S7" s="29" t="n"/>
-      <c r="T7" s="29" t="n"/>
-      <c r="U7" s="29" t="n"/>
-      <c r="V7" s="24" t="n"/>
-    </row>
-    <row r="8" ht="14" customHeight="1" s="21">
-      <c r="A8" s="46" t="n"/>
-      <c r="G8" s="29" t="n"/>
-      <c r="H8" s="29" t="n"/>
-      <c r="I8" s="29" t="n"/>
-      <c r="J8" s="29" t="n"/>
-      <c r="K8" s="29" t="n"/>
-      <c r="L8" s="29" t="n"/>
-      <c r="M8" s="29" t="n"/>
-      <c r="N8" s="29" t="n"/>
-      <c r="O8" s="29" t="n"/>
-      <c r="P8" s="29" t="n"/>
-      <c r="Q8" s="29" t="n"/>
-      <c r="R8" s="29" t="n"/>
-      <c r="S8" s="29" t="n"/>
-      <c r="T8" s="29" t="n"/>
-      <c r="U8" s="29" t="n"/>
-      <c r="V8" s="24" t="n"/>
-    </row>
-    <row r="9" ht="15.5" customHeight="1" s="21">
-      <c r="A9" s="47" t="n"/>
-      <c r="B9" s="48" t="n"/>
-      <c r="C9" s="48" t="n"/>
-      <c r="D9" s="48" t="n"/>
-      <c r="E9" s="48" t="n"/>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-      <c r="M9" s="15" t="n"/>
-      <c r="N9" s="15" t="n"/>
-      <c r="O9" s="15" t="n"/>
-      <c r="P9" s="15" t="n"/>
-      <c r="Q9" s="15" t="n"/>
-      <c r="R9" s="15" t="n"/>
-      <c r="S9" s="15" t="n"/>
-      <c r="T9" s="15" t="n"/>
-      <c r="U9" s="15" t="n"/>
-      <c r="V9" s="25" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+      <c r="L6" s="15" t="n"/>
+      <c r="M6" s="15" t="n"/>
+      <c r="N6" s="15" t="n"/>
+      <c r="O6" s="15" t="n"/>
+      <c r="P6" s="15" t="n"/>
+      <c r="Q6" s="15" t="n"/>
+      <c r="R6" s="15" t="n"/>
+      <c r="S6" s="15" t="n"/>
+      <c r="T6" s="15" t="n"/>
+      <c r="U6" s="15" t="n"/>
+      <c r="V6" s="33" t="n"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1" s="31">
+      <c r="A7" s="41" t="n"/>
+      <c r="G7" s="39" t="n"/>
+      <c r="H7" s="39" t="n"/>
+      <c r="J7" s="39" t="n"/>
+      <c r="K7" s="39" t="n"/>
+      <c r="L7" s="39" t="n"/>
+      <c r="M7" s="39" t="n"/>
+      <c r="N7" s="39" t="n"/>
+      <c r="O7" s="39" t="n"/>
+      <c r="P7" s="39" t="n"/>
+      <c r="Q7" s="39" t="n"/>
+      <c r="R7" s="39" t="n"/>
+      <c r="S7" s="39" t="n"/>
+      <c r="T7" s="39" t="n"/>
+      <c r="U7" s="39" t="n"/>
+      <c r="V7" s="34" t="n"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1" s="31">
+      <c r="A8" s="41" t="n"/>
+      <c r="G8" s="39" t="n"/>
+      <c r="H8" s="39" t="n"/>
+      <c r="I8" s="39" t="n"/>
+      <c r="J8" s="39" t="n"/>
+      <c r="K8" s="39" t="n"/>
+      <c r="L8" s="39" t="n"/>
+      <c r="M8" s="39" t="n"/>
+      <c r="N8" s="39" t="n"/>
+      <c r="O8" s="39" t="n"/>
+      <c r="P8" s="39" t="n"/>
+      <c r="Q8" s="39" t="n"/>
+      <c r="R8" s="39" t="n"/>
+      <c r="S8" s="39" t="n"/>
+      <c r="T8" s="39" t="n"/>
+      <c r="U8" s="39" t="n"/>
+      <c r="V8" s="34" t="n"/>
+    </row>
+    <row r="9" ht="15.55" customHeight="1" s="31">
+      <c r="A9" s="42" t="n"/>
+      <c r="B9" s="43" t="n"/>
+      <c r="C9" s="43" t="n"/>
+      <c r="D9" s="43" t="n"/>
+      <c r="E9" s="43" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="25" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="25" t="n"/>
+      <c r="N9" s="25" t="n"/>
+      <c r="O9" s="25" t="n"/>
+      <c r="P9" s="25" t="n"/>
+      <c r="Q9" s="25" t="n"/>
+      <c r="R9" s="25" t="n"/>
+      <c r="S9" s="25" t="n"/>
+      <c r="T9" s="25" t="n"/>
+      <c r="U9" s="25" t="n"/>
+      <c r="V9" s="35" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="n"/>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="B10" s="40" t="n"/>
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
-      <c r="F10" s="41" t="n"/>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="9" t="n"/>
-      <c r="I10" s="9" t="n"/>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
-      <c r="Q10" s="9" t="n"/>
-      <c r="R10" s="9" t="n"/>
-      <c r="S10" s="9" t="n"/>
-      <c r="T10" s="9" t="n"/>
-      <c r="U10" s="9" t="n"/>
-      <c r="V10" s="23" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="10" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+      <c r="L10" s="15" t="n"/>
+      <c r="M10" s="15" t="n"/>
+      <c r="N10" s="15" t="n"/>
+      <c r="O10" s="15" t="n"/>
+      <c r="P10" s="15" t="n"/>
+      <c r="Q10" s="15" t="n"/>
+      <c r="R10" s="15" t="n"/>
+      <c r="S10" s="15" t="n"/>
+      <c r="T10" s="15" t="n"/>
+      <c r="U10" s="15" t="n"/>
+      <c r="V10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="n"/>
-      <c r="G11" s="29" t="n"/>
-      <c r="H11" s="29" t="n"/>
-      <c r="J11" s="29" t="n"/>
-      <c r="K11" s="29" t="n"/>
-      <c r="L11" s="29" t="n"/>
-      <c r="M11" s="29" t="n"/>
-      <c r="N11" s="29" t="n"/>
-      <c r="O11" s="29" t="n"/>
-      <c r="P11" s="29" t="n"/>
-      <c r="Q11" s="29" t="n"/>
-      <c r="R11" s="29" t="n"/>
-      <c r="S11" s="29" t="n"/>
-      <c r="T11" s="29" t="n"/>
-      <c r="U11" s="29" t="n"/>
-      <c r="V11" s="24" t="n"/>
+      <c r="A11" s="41" t="n"/>
+      <c r="G11" s="39" t="n"/>
+      <c r="H11" s="39" t="n"/>
+      <c r="J11" s="39" t="n"/>
+      <c r="K11" s="39" t="n"/>
+      <c r="L11" s="39" t="n"/>
+      <c r="M11" s="39" t="n"/>
+      <c r="N11" s="39" t="n"/>
+      <c r="O11" s="39" t="n"/>
+      <c r="P11" s="39" t="n"/>
+      <c r="Q11" s="39" t="n"/>
+      <c r="R11" s="39" t="n"/>
+      <c r="S11" s="39" t="n"/>
+      <c r="T11" s="39" t="n"/>
+      <c r="U11" s="39" t="n"/>
+      <c r="V11" s="34" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="n"/>
-      <c r="G12" s="29" t="n"/>
-      <c r="H12" s="29" t="n"/>
-      <c r="I12" s="29" t="n"/>
-      <c r="J12" s="29" t="n"/>
-      <c r="K12" s="29" t="n"/>
-      <c r="L12" s="29" t="n"/>
-      <c r="M12" s="29" t="n"/>
-      <c r="N12" s="29" t="n"/>
-      <c r="O12" s="29" t="n"/>
-      <c r="P12" s="29" t="n"/>
-      <c r="Q12" s="29" t="n"/>
-      <c r="R12" s="29" t="n"/>
-      <c r="S12" s="29" t="n"/>
-      <c r="T12" s="29" t="n"/>
-      <c r="U12" s="29" t="n"/>
-      <c r="V12" s="24" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="47" t="n"/>
-      <c r="B13" s="48" t="n"/>
-      <c r="C13" s="48" t="n"/>
-      <c r="D13" s="48" t="n"/>
-      <c r="E13" s="48" t="n"/>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="15" t="n"/>
-      <c r="K13" s="15" t="n"/>
-      <c r="L13" s="15" t="n"/>
-      <c r="M13" s="15" t="n"/>
-      <c r="N13" s="15" t="n"/>
-      <c r="O13" s="15" t="n"/>
-      <c r="P13" s="15" t="n"/>
-      <c r="Q13" s="15" t="n"/>
-      <c r="R13" s="15" t="n"/>
-      <c r="S13" s="15" t="n"/>
-      <c r="T13" s="15" t="n"/>
-      <c r="U13" s="15" t="n"/>
-      <c r="V13" s="25" t="n"/>
+      <c r="A12" s="41" t="n"/>
+      <c r="G12" s="39" t="n"/>
+      <c r="H12" s="39" t="n"/>
+      <c r="I12" s="39" t="n"/>
+      <c r="J12" s="39" t="n"/>
+      <c r="K12" s="39" t="n"/>
+      <c r="L12" s="39" t="n"/>
+      <c r="M12" s="39" t="n"/>
+      <c r="N12" s="39" t="n"/>
+      <c r="O12" s="39" t="n"/>
+      <c r="P12" s="39" t="n"/>
+      <c r="Q12" s="39" t="n"/>
+      <c r="R12" s="39" t="n"/>
+      <c r="S12" s="39" t="n"/>
+      <c r="T12" s="39" t="n"/>
+      <c r="U12" s="39" t="n"/>
+      <c r="V12" s="34" t="n"/>
+    </row>
+    <row r="13" ht="15.15" customHeight="1" s="31">
+      <c r="A13" s="42" t="n"/>
+      <c r="B13" s="43" t="n"/>
+      <c r="C13" s="43" t="n"/>
+      <c r="D13" s="43" t="n"/>
+      <c r="E13" s="43" t="n"/>
+      <c r="G13" s="25" t="n"/>
+      <c r="H13" s="25" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
+      <c r="L13" s="25" t="n"/>
+      <c r="M13" s="25" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="25" t="n"/>
+      <c r="P13" s="25" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="25" t="n"/>
+      <c r="S13" s="25" t="n"/>
+      <c r="T13" s="25" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="F14" s="41" t="n"/>
-    </row>
-    <row r="15" ht="15.5" customHeight="1" s="21">
-      <c r="A15" s="28" t="n"/>
-      <c r="B15" s="28" t="n"/>
-      <c r="C15" s="28" t="n"/>
-      <c r="D15" s="28" t="n"/>
-      <c r="E15" s="28" t="n"/>
-      <c r="F15" s="28" t="n"/>
-      <c r="G15" s="28" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="29"/>
-    <row r="17" customFormat="1" s="29"/>
-    <row r="18" customFormat="1" s="29">
-      <c r="A18" s="29" t="n"/>
+      <c r="F14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="38" t="n"/>
+      <c r="B15" s="38" t="n"/>
+      <c r="C15" s="38" t="n"/>
+      <c r="D15" s="38" t="n"/>
+      <c r="E15" s="38" t="n"/>
+      <c r="F15" s="38" t="n"/>
+      <c r="G15" s="38" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="39"/>
+    <row r="17" customFormat="1" s="39"/>
+    <row r="18" customFormat="1" s="39">
+      <c r="A18" s="39" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="inlineStr">
+      <c r="A20" s="27" t="inlineStr">
         <is>
           <t>注：</t>
         </is>
       </c>
-      <c r="B20" s="29" t="inlineStr">
+      <c r="B20" s="39" t="inlineStr">
         <is>
           <t>1. 每份作品需用粗外侧框线框进行标记；</t>
         </is>
       </c>
-      <c r="C20" s="29" t="n"/>
-      <c r="D20" s="29" t="n"/>
-      <c r="E20" s="29" t="n"/>
-      <c r="F20" s="29" t="n"/>
+      <c r="C20" s="39" t="n"/>
+      <c r="D20" s="39" t="n"/>
+      <c r="E20" s="39" t="n"/>
+      <c r="F20" s="39" t="n"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
@@ -1193,42 +1790,54 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="34" t="n"/>
+      <c r="B23" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A2:V2"/>
-    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="F10:F13"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="B23:F23"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A3:V3"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="8">
+    <dataValidation sqref="H6:H13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"理工农医类,社会调查报告和人文社科类,发明创造科技制作类"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J6:J13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet3!$G$1:$G$35</formula1>
     </dataValidation>
     <dataValidation sqref="D6:D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"A.理工农医类,B.社会调查报告和人文社科类,C.发明创造科技制作类"</formula1>
     </dataValidation>
-    <dataValidation sqref="H6:H13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"是,否"</formula1>
+    <dataValidation sqref="E6:E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet2!$B$1:$N$1</formula1>
+    </dataValidation>
+    <dataValidation sqref="F6:F14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet2!$A$2:$A$112</formula1>
     </dataValidation>
     <dataValidation sqref="I6:I13 R6:R13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"男,女"</formula1>
     </dataValidation>
+    <dataValidation sqref="L6:L13 S6:S13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet3!$A$1:$A$73</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1240,310 +1849,311 @@
   </sheetPr>
   <dimension ref="A2:W20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.1796875" customWidth="1" style="21" min="1" max="1"/>
-    <col width="40.08984375" customWidth="1" style="21" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="21" min="3" max="3"/>
-    <col width="19.1796875" customWidth="1" style="21" min="4" max="4"/>
-    <col width="23.1796875" customWidth="1" style="21" min="5" max="5"/>
-    <col width="10" customWidth="1" style="21" min="6" max="6"/>
-    <col width="25.1796875" customWidth="1" style="21" min="7" max="7"/>
-    <col width="15.1796875" customWidth="1" style="21" min="12" max="12"/>
-    <col width="17.1796875" customWidth="1" style="21" min="15" max="15"/>
-    <col width="10" customWidth="1" style="21" min="19" max="19"/>
-    <col width="19.90625" customWidth="1" style="21" min="20" max="21"/>
+    <col width="13.1481481481481" customWidth="1" style="31" min="1" max="1"/>
+    <col width="40.1111111111111" customWidth="1" style="31" min="2" max="2"/>
+    <col width="15.1481481481481" customWidth="1" style="31" min="3" max="3"/>
+    <col width="19.1481481481481" customWidth="1" style="31" min="4" max="4"/>
+    <col width="23.1481481481481" customWidth="1" style="31" min="5" max="5"/>
+    <col width="10" customWidth="1" style="31" min="6" max="6"/>
+    <col width="25.1481481481481" customWidth="1" style="31" min="7" max="7"/>
+    <col width="15.1481481481481" customWidth="1" style="31" min="12" max="12"/>
+    <col width="17.1481481481481" customWidth="1" style="31" min="15" max="15"/>
+    <col width="10" customWidth="1" style="31" min="19" max="19"/>
+    <col width="19.9259259259259" customWidth="1" style="31" min="20" max="21"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="30" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>请以参赛项目团队为单位完成此Excel，交至pku62747382@163.com；文件命名方式：跨学科+姓名（团队负责人）</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>北京大学第31届挑战杯  跨学科  立项信息登记表</t>
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="44">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="4" ht="15.15" customHeight="1" s="31"/>
+    <row r="5" ht="15.15" customFormat="1" customHeight="1" s="18">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>作品题目</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>参赛类别</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>学科门类</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>一级学科</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
         <is>
           <t>是否为团队负责人</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>性别</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>生源地</t>
         </is>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J5" s="10" t="inlineStr">
         <is>
           <t>学号</t>
         </is>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="10" t="inlineStr">
         <is>
           <t>所在院系</t>
         </is>
       </c>
-      <c r="L5" s="6" t="inlineStr">
+      <c r="L5" s="10" t="inlineStr">
         <is>
           <t>年级（如20本）</t>
         </is>
       </c>
-      <c r="M5" s="6" t="inlineStr">
+      <c r="M5" s="10" t="inlineStr">
         <is>
           <t>手机</t>
         </is>
       </c>
-      <c r="N5" s="6" t="inlineStr">
+      <c r="N5" s="10" t="inlineStr">
         <is>
           <t>微信号</t>
         </is>
       </c>
-      <c r="O5" s="6" t="inlineStr">
+      <c r="O5" s="10" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="P5" s="6" t="inlineStr">
+      <c r="P5" s="10" t="inlineStr">
         <is>
           <t>指导教师姓名</t>
         </is>
       </c>
-      <c r="Q5" s="6" t="inlineStr">
+      <c r="Q5" s="10" t="inlineStr">
         <is>
           <t>指导教师性别</t>
         </is>
       </c>
-      <c r="R5" s="6" t="inlineStr">
+      <c r="R5" s="10" t="inlineStr">
         <is>
           <t>指导教师所在院系</t>
         </is>
       </c>
-      <c r="S5" s="6" t="inlineStr">
+      <c r="S5" s="10" t="inlineStr">
         <is>
           <t>指导教师职称/职务</t>
         </is>
       </c>
-      <c r="T5" s="6" t="inlineStr">
+      <c r="T5" s="10" t="inlineStr">
         <is>
           <t>指导教师电话</t>
         </is>
       </c>
-      <c r="U5" s="22" t="inlineStr">
+      <c r="U5" s="32" t="inlineStr">
         <is>
           <t>指导教师电子邮箱</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="n"/>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>跨学科</t>
         </is>
       </c>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="41" t="n"/>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="9" t="n"/>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="9" t="n"/>
-      <c r="K6" s="9" t="n"/>
-      <c r="L6" s="9" t="n"/>
-      <c r="M6" s="9" t="n"/>
-      <c r="N6" s="9" t="n"/>
-      <c r="O6" s="9" t="n"/>
-      <c r="P6" s="9" t="n"/>
-      <c r="Q6" s="9" t="n"/>
-      <c r="R6" s="9" t="n"/>
-      <c r="S6" s="9" t="n"/>
-      <c r="T6" s="9" t="n"/>
-      <c r="U6" s="23" t="n"/>
+      <c r="D6" s="15" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+      <c r="L6" s="15" t="n"/>
+      <c r="M6" s="15" t="n"/>
+      <c r="N6" s="15" t="n"/>
+      <c r="O6" s="15" t="n"/>
+      <c r="P6" s="15" t="n"/>
+      <c r="Q6" s="15" t="n"/>
+      <c r="R6" s="15" t="n"/>
+      <c r="S6" s="15" t="n"/>
+      <c r="T6" s="15" t="n"/>
+      <c r="U6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="n"/>
-      <c r="D7" s="29" t="n"/>
-      <c r="E7" s="44" t="n"/>
-      <c r="F7" s="29" t="n"/>
-      <c r="G7" s="29" t="n"/>
-      <c r="I7" s="29" t="n"/>
-      <c r="J7" s="29" t="n"/>
-      <c r="K7" s="29" t="n"/>
-      <c r="L7" s="29" t="n"/>
-      <c r="M7" s="29" t="n"/>
-      <c r="N7" s="29" t="n"/>
-      <c r="O7" s="29" t="n"/>
-      <c r="P7" s="29" t="n"/>
-      <c r="Q7" s="29" t="n"/>
-      <c r="R7" s="29" t="n"/>
-      <c r="S7" s="29" t="n"/>
-      <c r="T7" s="29" t="n"/>
-      <c r="U7" s="24" t="n"/>
+      <c r="A7" s="41" t="n"/>
+      <c r="D7" s="39" t="n"/>
+      <c r="E7" s="18" t="n"/>
+      <c r="F7" s="39" t="n"/>
+      <c r="G7" s="39" t="n"/>
+      <c r="I7" s="39" t="n"/>
+      <c r="J7" s="39" t="n"/>
+      <c r="K7" s="39" t="n"/>
+      <c r="L7" s="39" t="n"/>
+      <c r="M7" s="39" t="n"/>
+      <c r="N7" s="39" t="n"/>
+      <c r="O7" s="39" t="n"/>
+      <c r="P7" s="39" t="n"/>
+      <c r="Q7" s="39" t="n"/>
+      <c r="R7" s="39" t="n"/>
+      <c r="S7" s="39" t="n"/>
+      <c r="T7" s="39" t="n"/>
+      <c r="U7" s="34" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="n"/>
-      <c r="D8" s="29" t="n"/>
-      <c r="E8" s="44" t="n"/>
-      <c r="F8" s="29" t="n"/>
-      <c r="G8" s="29" t="n"/>
-      <c r="H8" s="29" t="n"/>
-      <c r="I8" s="29" t="n"/>
-      <c r="J8" s="29" t="n"/>
-      <c r="K8" s="29" t="n"/>
-      <c r="L8" s="29" t="n"/>
-      <c r="M8" s="29" t="n"/>
-      <c r="N8" s="29" t="n"/>
-      <c r="O8" s="29" t="n"/>
-      <c r="P8" s="29" t="n"/>
-      <c r="Q8" s="29" t="n"/>
-      <c r="R8" s="29" t="n"/>
-      <c r="S8" s="29" t="n"/>
-      <c r="T8" s="29" t="n"/>
-      <c r="U8" s="24" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="47" t="n"/>
-      <c r="B9" s="48" t="n"/>
-      <c r="C9" s="48" t="n"/>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="43" t="n"/>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-      <c r="M9" s="15" t="n"/>
-      <c r="N9" s="15" t="n"/>
-      <c r="O9" s="15" t="n"/>
-      <c r="P9" s="15" t="n"/>
-      <c r="Q9" s="15" t="n"/>
-      <c r="R9" s="15" t="n"/>
-      <c r="S9" s="15" t="n"/>
-      <c r="T9" s="15" t="n"/>
-      <c r="U9" s="25" t="n"/>
+      <c r="A8" s="41" t="n"/>
+      <c r="D8" s="39" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="39" t="n"/>
+      <c r="G8" s="39" t="n"/>
+      <c r="H8" s="39" t="n"/>
+      <c r="I8" s="39" t="n"/>
+      <c r="J8" s="39" t="n"/>
+      <c r="K8" s="39" t="n"/>
+      <c r="L8" s="39" t="n"/>
+      <c r="M8" s="39" t="n"/>
+      <c r="N8" s="39" t="n"/>
+      <c r="O8" s="39" t="n"/>
+      <c r="P8" s="39" t="n"/>
+      <c r="Q8" s="39" t="n"/>
+      <c r="R8" s="39" t="n"/>
+      <c r="S8" s="39" t="n"/>
+      <c r="T8" s="39" t="n"/>
+      <c r="U8" s="34" t="n"/>
+    </row>
+    <row r="9" ht="15.15" customHeight="1" s="31">
+      <c r="A9" s="42" t="n"/>
+      <c r="B9" s="43" t="n"/>
+      <c r="C9" s="43" t="n"/>
+      <c r="D9" s="25" t="n"/>
+      <c r="E9" s="23" t="n"/>
+      <c r="F9" s="25" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="25" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="25" t="n"/>
+      <c r="N9" s="25" t="n"/>
+      <c r="O9" s="25" t="n"/>
+      <c r="P9" s="25" t="n"/>
+      <c r="Q9" s="25" t="n"/>
+      <c r="R9" s="25" t="n"/>
+      <c r="S9" s="25" t="n"/>
+      <c r="T9" s="25" t="n"/>
+      <c r="U9" s="35" t="n"/>
     </row>
     <row r="10">
-      <c r="O10" s="29" t="n"/>
-      <c r="P10" s="29" t="n"/>
-      <c r="Q10" s="29" t="n"/>
-      <c r="R10" s="29" t="n"/>
-      <c r="S10" s="29" t="n"/>
-      <c r="T10" s="29" t="n"/>
-      <c r="U10" s="29" t="n"/>
-      <c r="V10" s="29" t="n"/>
-      <c r="W10" s="29" t="n"/>
-    </row>
-    <row r="11" ht="14" customHeight="1" s="21">
-      <c r="B11" s="20" t="n"/>
-      <c r="C11" s="20" t="n"/>
-      <c r="O11" s="29" t="n"/>
-      <c r="P11" s="29" t="n"/>
-      <c r="Q11" s="29" t="n"/>
-      <c r="R11" s="29" t="n"/>
-      <c r="S11" s="29" t="n"/>
-      <c r="T11" s="29" t="n"/>
-      <c r="U11" s="29" t="n"/>
-      <c r="V11" s="29" t="n"/>
-      <c r="W11" s="29" t="n"/>
+      <c r="O10" s="39" t="n"/>
+      <c r="P10" s="39" t="n"/>
+      <c r="Q10" s="39" t="n"/>
+      <c r="R10" s="39" t="n"/>
+      <c r="S10" s="39" t="n"/>
+      <c r="T10" s="39" t="n"/>
+      <c r="U10" s="39" t="n"/>
+      <c r="V10" s="39" t="n"/>
+      <c r="W10" s="39" t="n"/>
+    </row>
+    <row r="11" ht="14.05" customHeight="1" s="31">
+      <c r="B11" s="30" t="n"/>
+      <c r="C11" s="30" t="n"/>
+      <c r="O11" s="39" t="n"/>
+      <c r="P11" s="39" t="n"/>
+      <c r="Q11" s="39" t="n"/>
+      <c r="R11" s="39" t="n"/>
+      <c r="S11" s="39" t="n"/>
+      <c r="T11" s="39" t="n"/>
+      <c r="U11" s="39" t="n"/>
+      <c r="V11" s="39" t="n"/>
+      <c r="W11" s="39" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="20" t="n"/>
-      <c r="C12" s="20" t="n"/>
-      <c r="O12" s="29" t="n"/>
-      <c r="P12" s="29" t="n"/>
-      <c r="Q12" s="29" t="n"/>
-      <c r="R12" s="29" t="n"/>
-      <c r="S12" s="29" t="n"/>
-      <c r="T12" s="29" t="n"/>
-      <c r="U12" s="29" t="n"/>
-      <c r="V12" s="29" t="n"/>
-      <c r="W12" s="29" t="n"/>
+      <c r="B12" s="30" t="n"/>
+      <c r="C12" s="30" t="n"/>
+      <c r="O12" s="39" t="n"/>
+      <c r="P12" s="39" t="n"/>
+      <c r="Q12" s="39" t="n"/>
+      <c r="R12" s="39" t="n"/>
+      <c r="S12" s="39" t="n"/>
+      <c r="T12" s="39" t="n"/>
+      <c r="U12" s="39" t="n"/>
+      <c r="V12" s="39" t="n"/>
+      <c r="W12" s="39" t="n"/>
     </row>
     <row r="13">
-      <c r="O13" s="29" t="n"/>
-      <c r="P13" s="29" t="n"/>
-      <c r="Q13" s="29" t="n"/>
-      <c r="R13" s="29" t="n"/>
-      <c r="S13" s="29" t="n"/>
-      <c r="T13" s="29" t="n"/>
-      <c r="U13" s="29" t="n"/>
-      <c r="V13" s="29" t="n"/>
-      <c r="W13" s="29" t="n"/>
+      <c r="O13" s="39" t="n"/>
+      <c r="P13" s="39" t="n"/>
+      <c r="Q13" s="39" t="n"/>
+      <c r="R13" s="39" t="n"/>
+      <c r="S13" s="39" t="n"/>
+      <c r="T13" s="39" t="n"/>
+      <c r="U13" s="39" t="n"/>
+      <c r="V13" s="39" t="n"/>
+      <c r="W13" s="39" t="n"/>
     </row>
     <row r="14">
-      <c r="E14" s="29" t="n"/>
-      <c r="F14" s="29" t="n"/>
-      <c r="G14" s="29" t="n"/>
-      <c r="H14" s="29" t="n"/>
-      <c r="I14" s="29" t="n"/>
-      <c r="J14" s="29" t="n"/>
+      <c r="E14" s="39" t="n"/>
+      <c r="F14" s="39" t="n"/>
+      <c r="G14" s="39" t="n"/>
+      <c r="H14" s="39" t="n"/>
+      <c r="I14" s="39" t="n"/>
+      <c r="J14" s="39" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="inlineStr">
+      <c r="A16" s="27" t="inlineStr">
         <is>
           <t>注：</t>
         </is>
       </c>
-      <c r="B16" s="29" t="inlineStr">
+      <c r="B16" s="39" t="inlineStr">
         <is>
           <t>1. 每份作品需用粗外侧框线框进行标记；</t>
         </is>
       </c>
-      <c r="C16" s="26" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="26" t="n"/>
-      <c r="F16" s="26" t="n"/>
+      <c r="C16" s="36" t="n"/>
+      <c r="D16" s="36" t="n"/>
+      <c r="E16" s="36" t="n"/>
+      <c r="F16" s="36" t="n"/>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -1551,10 +2161,10 @@
           <t>2. 如有多名作者则所有作者信息都需填写；</t>
         </is>
       </c>
-      <c r="C17" s="34" t="n"/>
-      <c r="D17" s="34" t="n"/>
-      <c r="E17" s="34" t="n"/>
-      <c r="F17" s="34" t="n"/>
+      <c r="C17" s="37" t="n"/>
+      <c r="D17" s="37" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -1562,27 +2172,27 @@
           <t>3. 出生年月格式（例）：1999.02。</t>
         </is>
       </c>
-      <c r="C18" s="34" t="n"/>
-      <c r="D18" s="34" t="n"/>
-      <c r="E18" s="34" t="n"/>
-      <c r="F18" s="34" t="n"/>
-      <c r="G18" s="34" t="n"/>
+      <c r="C18" s="37" t="n"/>
+      <c r="D18" s="37" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
+      <c r="G18" s="37" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="34" t="n"/>
-      <c r="C19" s="34" t="n"/>
-      <c r="D19" s="34" t="n"/>
-      <c r="E19" s="34" t="n"/>
-      <c r="F19" s="34" t="n"/>
-      <c r="G19" s="34" t="n"/>
+      <c r="B19" s="37" t="n"/>
+      <c r="C19" s="37" t="n"/>
+      <c r="D19" s="37" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
+      <c r="G19" s="37" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="n"/>
-      <c r="B20" s="29" t="n"/>
-      <c r="C20" s="29" t="n"/>
-      <c r="D20" s="29" t="n"/>
-      <c r="E20" s="29" t="n"/>
-      <c r="F20" s="29" t="n"/>
+      <c r="A20" s="39" t="n"/>
+      <c r="B20" s="39" t="n"/>
+      <c r="C20" s="39" t="n"/>
+      <c r="D20" s="39" t="n"/>
+      <c r="E20" s="39" t="n"/>
+      <c r="F20" s="39" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1592,16 +2202,28 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="A3:U3"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="6">
+    <dataValidation sqref="D6:D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet2!$B$1:$N$1</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6:E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet2!$A$2:$A$112</formula1>
+    </dataValidation>
     <dataValidation sqref="G6:G9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation sqref="H6:H9 Q6:Q13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"男,女"</formula1>
     </dataValidation>
+    <dataValidation sqref="I6:I9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet3!$G$1:$G$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="K6:K9 R6:R13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet3!$A$1:$A$73</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1613,310 +2235,311 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="34.1796875" customWidth="1" style="21" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="21" min="3" max="3"/>
-    <col width="9.453125" customWidth="1" style="21" min="4" max="4"/>
-    <col width="23.1796875" customWidth="1" style="21" min="5" max="5"/>
-    <col width="11.7265625" customWidth="1" style="21" min="6" max="6"/>
-    <col width="25.1796875" customWidth="1" style="21" min="7" max="7"/>
-    <col width="15.1796875" customWidth="1" style="21" min="12" max="12"/>
-    <col width="17.1796875" customWidth="1" style="21" min="15" max="15"/>
-    <col width="10" customWidth="1" style="21" min="19" max="19"/>
-    <col width="15.90625" customWidth="1" style="21" min="20" max="21"/>
-    <col width="29" customWidth="1" style="21" min="22" max="22"/>
+    <col width="34.1481481481481" customWidth="1" style="31" min="2" max="2"/>
+    <col width="15.1481481481481" customWidth="1" style="31" min="3" max="3"/>
+    <col width="9.46296296296296" customWidth="1" style="31" min="4" max="4"/>
+    <col width="23.1481481481481" customWidth="1" style="31" min="5" max="5"/>
+    <col width="11.6944444444444" customWidth="1" style="31" min="6" max="6"/>
+    <col width="25.1481481481481" customWidth="1" style="31" min="7" max="7"/>
+    <col width="15.1481481481481" customWidth="1" style="31" min="12" max="12"/>
+    <col width="17.1481481481481" customWidth="1" style="31" min="15" max="15"/>
+    <col width="10" customWidth="1" style="31" min="19" max="19"/>
+    <col width="15.9259259259259" customWidth="1" style="31" min="20" max="21"/>
+    <col width="29" customWidth="1" style="31" min="22" max="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1" s="21">
+    <row r="1" ht="17.4" customHeight="1" s="31">
       <c r="A1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>请以参赛项目团队为单位完成此Excel，交至pku62747382@163.com；文件命名方式：特贡+姓名（团队负责人）</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>北京大学第31届挑战杯  特别贡献奖  立项信息登记表</t>
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="44">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="4" ht="15.15" customHeight="1" s="31"/>
+    <row r="5" ht="15.15" customFormat="1" customHeight="1" s="18">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>作品题目</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>参赛类别</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>学科门类</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>一级学科</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
         <is>
           <t>是否为团队负责人</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>性别</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>生源地</t>
         </is>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J5" s="10" t="inlineStr">
         <is>
           <t>学号</t>
         </is>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="10" t="inlineStr">
         <is>
           <t>所在院系</t>
         </is>
       </c>
-      <c r="L5" s="6" t="inlineStr">
+      <c r="L5" s="10" t="inlineStr">
         <is>
           <t>年级（如20本）</t>
         </is>
       </c>
-      <c r="M5" s="6" t="inlineStr">
+      <c r="M5" s="10" t="inlineStr">
         <is>
           <t>手机</t>
         </is>
       </c>
-      <c r="N5" s="6" t="inlineStr">
+      <c r="N5" s="10" t="inlineStr">
         <is>
           <t>微信号</t>
         </is>
       </c>
-      <c r="O5" s="6" t="inlineStr">
+      <c r="O5" s="10" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="P5" s="6" t="inlineStr">
+      <c r="P5" s="10" t="inlineStr">
         <is>
           <t>指导教师姓名</t>
         </is>
       </c>
-      <c r="Q5" s="6" t="inlineStr">
+      <c r="Q5" s="10" t="inlineStr">
         <is>
           <t>指导教师性别</t>
         </is>
       </c>
-      <c r="R5" s="6" t="inlineStr">
+      <c r="R5" s="10" t="inlineStr">
         <is>
           <t>指导教师所在院系</t>
         </is>
       </c>
-      <c r="S5" s="6" t="inlineStr">
+      <c r="S5" s="10" t="inlineStr">
         <is>
           <t>指导教师职称/职务</t>
         </is>
       </c>
-      <c r="T5" s="6" t="inlineStr">
+      <c r="T5" s="10" t="inlineStr">
         <is>
           <t>指导教师电话</t>
         </is>
       </c>
-      <c r="U5" s="22" t="inlineStr">
+      <c r="U5" s="32" t="inlineStr">
         <is>
           <t>指导教师电子邮箱</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="n"/>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>特别贡献奖</t>
         </is>
       </c>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="41" t="n"/>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="9" t="n"/>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="9" t="n"/>
-      <c r="K6" s="9" t="n"/>
-      <c r="L6" s="9" t="n"/>
-      <c r="M6" s="9" t="n"/>
-      <c r="N6" s="9" t="n"/>
-      <c r="O6" s="9" t="n"/>
-      <c r="P6" s="9" t="n"/>
-      <c r="Q6" s="9" t="n"/>
-      <c r="R6" s="9" t="n"/>
-      <c r="S6" s="9" t="n"/>
-      <c r="T6" s="9" t="n"/>
-      <c r="U6" s="23" t="n"/>
+      <c r="D6" s="15" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+      <c r="L6" s="15" t="n"/>
+      <c r="M6" s="15" t="n"/>
+      <c r="N6" s="15" t="n"/>
+      <c r="O6" s="15" t="n"/>
+      <c r="P6" s="15" t="n"/>
+      <c r="Q6" s="15" t="n"/>
+      <c r="R6" s="15" t="n"/>
+      <c r="S6" s="15" t="n"/>
+      <c r="T6" s="15" t="n"/>
+      <c r="U6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="n"/>
-      <c r="D7" s="29" t="n"/>
-      <c r="E7" s="44" t="n"/>
-      <c r="F7" s="29" t="n"/>
-      <c r="G7" s="29" t="n"/>
-      <c r="I7" s="29" t="n"/>
-      <c r="J7" s="29" t="n"/>
-      <c r="K7" s="29" t="n"/>
-      <c r="L7" s="29" t="n"/>
-      <c r="M7" s="29" t="n"/>
-      <c r="N7" s="29" t="n"/>
-      <c r="O7" s="29" t="n"/>
-      <c r="P7" s="29" t="n"/>
-      <c r="Q7" s="29" t="n"/>
-      <c r="R7" s="29" t="n"/>
-      <c r="S7" s="29" t="n"/>
-      <c r="T7" s="29" t="n"/>
-      <c r="U7" s="24" t="n"/>
+      <c r="A7" s="41" t="n"/>
+      <c r="D7" s="39" t="n"/>
+      <c r="E7" s="18" t="n"/>
+      <c r="F7" s="39" t="n"/>
+      <c r="G7" s="39" t="n"/>
+      <c r="I7" s="39" t="n"/>
+      <c r="J7" s="39" t="n"/>
+      <c r="K7" s="39" t="n"/>
+      <c r="L7" s="39" t="n"/>
+      <c r="M7" s="39" t="n"/>
+      <c r="N7" s="39" t="n"/>
+      <c r="O7" s="39" t="n"/>
+      <c r="P7" s="39" t="n"/>
+      <c r="Q7" s="39" t="n"/>
+      <c r="R7" s="39" t="n"/>
+      <c r="S7" s="39" t="n"/>
+      <c r="T7" s="39" t="n"/>
+      <c r="U7" s="34" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="n"/>
-      <c r="D8" s="29" t="n"/>
-      <c r="E8" s="44" t="n"/>
-      <c r="F8" s="29" t="n"/>
-      <c r="G8" s="29" t="n"/>
-      <c r="H8" s="29" t="n"/>
-      <c r="I8" s="29" t="n"/>
-      <c r="J8" s="29" t="n"/>
-      <c r="K8" s="29" t="n"/>
-      <c r="L8" s="29" t="n"/>
-      <c r="M8" s="29" t="n"/>
-      <c r="N8" s="29" t="n"/>
-      <c r="O8" s="29" t="n"/>
-      <c r="P8" s="29" t="n"/>
-      <c r="Q8" s="29" t="n"/>
-      <c r="R8" s="29" t="n"/>
-      <c r="S8" s="29" t="n"/>
-      <c r="T8" s="29" t="n"/>
-      <c r="U8" s="24" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="47" t="n"/>
-      <c r="B9" s="48" t="n"/>
-      <c r="C9" s="48" t="n"/>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="43" t="n"/>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-      <c r="M9" s="15" t="n"/>
-      <c r="N9" s="15" t="n"/>
-      <c r="O9" s="15" t="n"/>
-      <c r="P9" s="15" t="n"/>
-      <c r="Q9" s="15" t="n"/>
-      <c r="R9" s="15" t="n"/>
-      <c r="S9" s="15" t="n"/>
-      <c r="T9" s="15" t="n"/>
-      <c r="U9" s="25" t="n"/>
+      <c r="A8" s="41" t="n"/>
+      <c r="D8" s="39" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="39" t="n"/>
+      <c r="G8" s="39" t="n"/>
+      <c r="H8" s="39" t="n"/>
+      <c r="I8" s="39" t="n"/>
+      <c r="J8" s="39" t="n"/>
+      <c r="K8" s="39" t="n"/>
+      <c r="L8" s="39" t="n"/>
+      <c r="M8" s="39" t="n"/>
+      <c r="N8" s="39" t="n"/>
+      <c r="O8" s="39" t="n"/>
+      <c r="P8" s="39" t="n"/>
+      <c r="Q8" s="39" t="n"/>
+      <c r="R8" s="39" t="n"/>
+      <c r="S8" s="39" t="n"/>
+      <c r="T8" s="39" t="n"/>
+      <c r="U8" s="34" t="n"/>
+    </row>
+    <row r="9" ht="15.15" customHeight="1" s="31">
+      <c r="A9" s="42" t="n"/>
+      <c r="B9" s="43" t="n"/>
+      <c r="C9" s="43" t="n"/>
+      <c r="D9" s="25" t="n"/>
+      <c r="E9" s="23" t="n"/>
+      <c r="F9" s="25" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="25" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="25" t="n"/>
+      <c r="N9" s="25" t="n"/>
+      <c r="O9" s="25" t="n"/>
+      <c r="P9" s="25" t="n"/>
+      <c r="Q9" s="25" t="n"/>
+      <c r="R9" s="25" t="n"/>
+      <c r="S9" s="25" t="n"/>
+      <c r="T9" s="25" t="n"/>
+      <c r="U9" s="35" t="n"/>
     </row>
     <row r="10">
-      <c r="P10" s="29" t="n"/>
-      <c r="Q10" s="29" t="n"/>
-      <c r="R10" s="29" t="n"/>
-      <c r="S10" s="29" t="n"/>
-      <c r="T10" s="29" t="n"/>
-      <c r="U10" s="29" t="n"/>
-    </row>
-    <row r="11" ht="25" customHeight="1" s="21">
-      <c r="P11" s="29" t="n"/>
-      <c r="Q11" s="29" t="n"/>
-      <c r="R11" s="29" t="n"/>
-      <c r="S11" s="29" t="n"/>
-      <c r="T11" s="29" t="n"/>
-      <c r="U11" s="29" t="n"/>
-      <c r="V11" s="29" t="n"/>
+      <c r="P10" s="39" t="n"/>
+      <c r="Q10" s="39" t="n"/>
+      <c r="R10" s="39" t="n"/>
+      <c r="S10" s="39" t="n"/>
+      <c r="T10" s="39" t="n"/>
+      <c r="U10" s="39" t="n"/>
+    </row>
+    <row r="11" ht="25" customHeight="1" s="31">
+      <c r="P11" s="39" t="n"/>
+      <c r="Q11" s="39" t="n"/>
+      <c r="R11" s="39" t="n"/>
+      <c r="S11" s="39" t="n"/>
+      <c r="T11" s="39" t="n"/>
+      <c r="U11" s="39" t="n"/>
+      <c r="V11" s="39" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="n"/>
-      <c r="B12" s="29" t="n"/>
-      <c r="P12" s="29" t="n"/>
-      <c r="Q12" s="29" t="n"/>
-      <c r="R12" s="29" t="n"/>
-      <c r="S12" s="29" t="n"/>
-      <c r="T12" s="29" t="n"/>
-      <c r="U12" s="29" t="n"/>
-      <c r="V12" s="29" t="n"/>
+      <c r="A12" s="39" t="n"/>
+      <c r="B12" s="39" t="n"/>
+      <c r="P12" s="39" t="n"/>
+      <c r="Q12" s="39" t="n"/>
+      <c r="R12" s="39" t="n"/>
+      <c r="S12" s="39" t="n"/>
+      <c r="T12" s="39" t="n"/>
+      <c r="U12" s="39" t="n"/>
+      <c r="V12" s="39" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="n"/>
-      <c r="B13" s="29" t="n"/>
-      <c r="E13" s="29" t="n"/>
-      <c r="F13" s="29" t="n"/>
-      <c r="G13" s="29" t="n"/>
-      <c r="H13" s="29" t="n"/>
-      <c r="I13" s="29" t="n"/>
-      <c r="J13" s="29" t="n"/>
-      <c r="P13" s="29" t="n"/>
-      <c r="Q13" s="29" t="n"/>
-      <c r="R13" s="29" t="n"/>
-      <c r="S13" s="29" t="n"/>
-      <c r="T13" s="29" t="n"/>
-      <c r="U13" s="29" t="n"/>
-      <c r="V13" s="29" t="n"/>
+      <c r="A13" s="39" t="n"/>
+      <c r="B13" s="39" t="n"/>
+      <c r="E13" s="39" t="n"/>
+      <c r="F13" s="39" t="n"/>
+      <c r="G13" s="39" t="n"/>
+      <c r="H13" s="39" t="n"/>
+      <c r="I13" s="39" t="n"/>
+      <c r="J13" s="39" t="n"/>
+      <c r="P13" s="39" t="n"/>
+      <c r="Q13" s="39" t="n"/>
+      <c r="R13" s="39" t="n"/>
+      <c r="S13" s="39" t="n"/>
+      <c r="T13" s="39" t="n"/>
+      <c r="U13" s="39" t="n"/>
+      <c r="V13" s="39" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="inlineStr">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>注：</t>
         </is>
       </c>
-      <c r="B14" s="29" t="inlineStr">
+      <c r="B14" s="39" t="inlineStr">
         <is>
           <t>1. 每份作品需用粗外侧框线框进行标记；</t>
         </is>
       </c>
-      <c r="C14" s="29" t="n"/>
-      <c r="D14" s="29" t="n"/>
-      <c r="E14" s="29" t="n"/>
-      <c r="F14" s="29" t="n"/>
-      <c r="G14" s="29" t="n"/>
-      <c r="P14" s="29" t="n"/>
-      <c r="Q14" s="29" t="n"/>
-      <c r="R14" s="29" t="n"/>
-      <c r="S14" s="29" t="n"/>
-      <c r="T14" s="29" t="n"/>
-      <c r="U14" s="29" t="n"/>
-      <c r="V14" s="29" t="n"/>
+      <c r="C14" s="39" t="n"/>
+      <c r="D14" s="39" t="n"/>
+      <c r="E14" s="39" t="n"/>
+      <c r="F14" s="39" t="n"/>
+      <c r="G14" s="39" t="n"/>
+      <c r="P14" s="39" t="n"/>
+      <c r="Q14" s="39" t="n"/>
+      <c r="R14" s="39" t="n"/>
+      <c r="S14" s="39" t="n"/>
+      <c r="T14" s="39" t="n"/>
+      <c r="U14" s="39" t="n"/>
+      <c r="V14" s="39" t="n"/>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -1924,18 +2547,18 @@
           <t>2. 如有多名作者则所有作者信息都需填写；</t>
         </is>
       </c>
-      <c r="C15" s="29" t="n"/>
-      <c r="D15" s="29" t="n"/>
-      <c r="E15" s="29" t="n"/>
-      <c r="F15" s="29" t="n"/>
-      <c r="G15" s="29" t="n"/>
-      <c r="P15" s="29" t="n"/>
-      <c r="Q15" s="29" t="n"/>
-      <c r="R15" s="29" t="n"/>
-      <c r="S15" s="29" t="n"/>
-      <c r="T15" s="29" t="n"/>
-      <c r="U15" s="29" t="n"/>
-      <c r="V15" s="29" t="n"/>
+      <c r="C15" s="39" t="n"/>
+      <c r="D15" s="39" t="n"/>
+      <c r="E15" s="39" t="n"/>
+      <c r="F15" s="39" t="n"/>
+      <c r="G15" s="39" t="n"/>
+      <c r="P15" s="39" t="n"/>
+      <c r="Q15" s="39" t="n"/>
+      <c r="R15" s="39" t="n"/>
+      <c r="S15" s="39" t="n"/>
+      <c r="T15" s="39" t="n"/>
+      <c r="U15" s="39" t="n"/>
+      <c r="V15" s="39" t="n"/>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -1946,25 +2569,25 @@
     </row>
     <row r="17"/>
     <row r="18">
-      <c r="G18" s="34" t="n"/>
+      <c r="G18" s="37" t="n"/>
     </row>
     <row r="19">
-      <c r="D19" s="34" t="n"/>
-      <c r="E19" s="34" t="n"/>
-      <c r="F19" s="34" t="n"/>
-      <c r="G19" s="34" t="n"/>
+      <c r="D19" s="37" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
+      <c r="G19" s="37" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="20" t="n"/>
-      <c r="C20" s="20" t="n"/>
+      <c r="B20" s="30" t="n"/>
+      <c r="C20" s="30" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="20" t="n"/>
-      <c r="C21" s="20" t="n"/>
+      <c r="B21" s="30" t="n"/>
+      <c r="C21" s="30" t="n"/>
     </row>
     <row r="22"/>
     <row r="23">
-      <c r="M23" s="29" t="inlineStr">
+      <c r="M23" s="39" t="inlineStr">
         <is>
           <t>、</t>
         </is>
@@ -1978,16 +2601,28 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="A3:U3"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="6">
+    <dataValidation sqref="D6:D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet2!$B$1:$N$1</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6:E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet2!$A$2:$A$112</formula1>
+    </dataValidation>
     <dataValidation sqref="G6:G9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation sqref="H6:H9 Q6:Q13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"男,女"</formula1>
     </dataValidation>
+    <dataValidation sqref="I6:I9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet3!$G$1:$G$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="K6:K9 R6:R13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>Sheet3!$A$1:$A$73</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1999,19 +2634,19 @@
   </sheetPr>
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.1796875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="27.81640625" customWidth="1" style="21" min="9" max="9"/>
-    <col width="15.08984375" customWidth="1" style="21" min="10" max="10"/>
-    <col width="17.90625" customWidth="1" style="21" min="11" max="11"/>
-    <col width="18.36328125" customWidth="1" style="21" min="12" max="12"/>
-    <col width="15.6328125" customWidth="1" style="21" min="13" max="13"/>
-    <col width="12.54296875" customWidth="1" style="21" min="14" max="14"/>
+    <col width="14.1481481481481" customWidth="1" style="1" min="1" max="1"/>
+    <col width="27.8425925925926" customWidth="1" style="31" min="9" max="9"/>
+    <col width="15.0740740740741" customWidth="1" style="31" min="10" max="10"/>
+    <col width="17.9259259259259" customWidth="1" style="31" min="11" max="11"/>
+    <col width="18.3796296296296" customWidth="1" style="31" min="12" max="12"/>
+    <col width="15.6111111111111" customWidth="1" style="31" min="13" max="13"/>
+    <col width="12.537037037037" customWidth="1" style="31" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2020,67 +2655,67 @@
           <t>总</t>
         </is>
       </c>
-      <c r="B1" s="29" t="inlineStr">
+      <c r="B1" s="39" t="inlineStr">
         <is>
           <t>哲学</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr">
+      <c r="C1" s="39" t="inlineStr">
         <is>
           <t>经济学</t>
         </is>
       </c>
-      <c r="D1" s="29" t="inlineStr">
+      <c r="D1" s="39" t="inlineStr">
         <is>
           <t>法学</t>
         </is>
       </c>
-      <c r="E1" s="29" t="inlineStr">
+      <c r="E1" s="39" t="inlineStr">
         <is>
           <t>教育学</t>
         </is>
       </c>
-      <c r="F1" s="29" t="inlineStr">
+      <c r="F1" s="39" t="inlineStr">
         <is>
           <t>文学</t>
         </is>
       </c>
-      <c r="G1" s="29" t="inlineStr">
+      <c r="G1" s="39" t="inlineStr">
         <is>
           <t>历史学</t>
         </is>
       </c>
-      <c r="H1" s="29" t="inlineStr">
+      <c r="H1" s="39" t="inlineStr">
         <is>
           <t>理学</t>
         </is>
       </c>
-      <c r="I1" s="29" t="inlineStr">
+      <c r="I1" s="39" t="inlineStr">
         <is>
           <t>工学</t>
         </is>
       </c>
-      <c r="J1" s="29" t="inlineStr">
+      <c r="J1" s="39" t="inlineStr">
         <is>
           <t>农学</t>
         </is>
       </c>
-      <c r="K1" s="29" t="inlineStr">
+      <c r="K1" s="39" t="inlineStr">
         <is>
           <t>医学</t>
         </is>
       </c>
-      <c r="L1" s="29" t="inlineStr">
+      <c r="L1" s="39" t="inlineStr">
         <is>
           <t>军事学</t>
         </is>
       </c>
-      <c r="M1" s="29" t="inlineStr">
+      <c r="M1" s="39" t="inlineStr">
         <is>
           <t>管理学</t>
         </is>
       </c>
-      <c r="N1" s="29" t="inlineStr">
+      <c r="N1" s="39" t="inlineStr">
         <is>
           <t>艺术学</t>
         </is>
@@ -2092,67 +2727,67 @@
           <t>哲学</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="39" t="inlineStr">
         <is>
           <t>哲学</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="39" t="inlineStr">
         <is>
           <t>理论经济学</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="39" t="inlineStr">
         <is>
           <t>法学</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="39" t="inlineStr">
         <is>
           <t>教育学</t>
         </is>
       </c>
-      <c r="F2" s="29" t="inlineStr">
+      <c r="F2" s="39" t="inlineStr">
         <is>
           <t>中国语言文学</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="G2" s="39" t="inlineStr">
         <is>
           <t>考古学</t>
         </is>
       </c>
-      <c r="H2" s="29" t="inlineStr">
+      <c r="H2" s="39" t="inlineStr">
         <is>
           <t>数学</t>
         </is>
       </c>
-      <c r="I2" s="29" t="inlineStr">
+      <c r="I2" s="39" t="inlineStr">
         <is>
           <t>力学</t>
         </is>
       </c>
-      <c r="J2" s="29" t="inlineStr">
+      <c r="J2" s="39" t="inlineStr">
         <is>
           <t>作物学</t>
         </is>
       </c>
-      <c r="K2" s="29" t="inlineStr">
+      <c r="K2" s="39" t="inlineStr">
         <is>
           <t>基础医学</t>
         </is>
       </c>
-      <c r="L2" s="29" t="inlineStr">
+      <c r="L2" s="39" t="inlineStr">
         <is>
           <t>军事思想及军事历史</t>
         </is>
       </c>
-      <c r="M2" s="29" t="inlineStr">
+      <c r="M2" s="39" t="inlineStr">
         <is>
           <t>管理科学与工程</t>
         </is>
       </c>
-      <c r="N2" s="29" t="inlineStr">
+      <c r="N2" s="39" t="inlineStr">
         <is>
           <t>艺术学理论</t>
         </is>
@@ -2164,62 +2799,62 @@
           <t>理论经济学</t>
         </is>
       </c>
-      <c r="C3" s="29" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>应用经济学</t>
         </is>
       </c>
-      <c r="D3" s="29" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>政治学</t>
         </is>
       </c>
-      <c r="E3" s="29" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>心理学</t>
         </is>
       </c>
-      <c r="F3" s="29" t="inlineStr">
+      <c r="F3" s="39" t="inlineStr">
         <is>
           <t>外国语言文学</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>中国史</t>
         </is>
       </c>
-      <c r="H3" s="29" t="inlineStr">
+      <c r="H3" s="39" t="inlineStr">
         <is>
           <t>物理学</t>
         </is>
       </c>
-      <c r="I3" s="29" t="inlineStr">
+      <c r="I3" s="39" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="J3" s="29" t="inlineStr">
+      <c r="J3" s="39" t="inlineStr">
         <is>
           <t>园艺学</t>
         </is>
       </c>
-      <c r="K3" s="29" t="inlineStr">
+      <c r="K3" s="39" t="inlineStr">
         <is>
           <t>临床医学</t>
         </is>
       </c>
-      <c r="L3" s="29" t="inlineStr">
+      <c r="L3" s="39" t="inlineStr">
         <is>
           <t>战略学</t>
         </is>
       </c>
-      <c r="M3" s="29" t="inlineStr">
+      <c r="M3" s="39" t="inlineStr">
         <is>
           <t>工商管理</t>
         </is>
       </c>
-      <c r="N3" s="29" t="inlineStr">
+      <c r="N3" s="39" t="inlineStr">
         <is>
           <t>音乐与舞蹈学</t>
         </is>
@@ -2231,57 +2866,57 @@
           <t>应用经济学</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="39" t="inlineStr">
         <is>
           <t>社会学</t>
         </is>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="39" t="inlineStr">
         <is>
           <t>体育学</t>
         </is>
       </c>
-      <c r="F4" s="29" t="inlineStr">
+      <c r="F4" s="39" t="inlineStr">
         <is>
           <t>新闻传播学</t>
         </is>
       </c>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="G4" s="39" t="inlineStr">
         <is>
           <t>世界史</t>
         </is>
       </c>
-      <c r="H4" s="29" t="inlineStr">
+      <c r="H4" s="39" t="inlineStr">
         <is>
           <t>化学</t>
         </is>
       </c>
-      <c r="I4" s="29" t="inlineStr">
+      <c r="I4" s="39" t="inlineStr">
         <is>
           <t>光学工程</t>
         </is>
       </c>
-      <c r="J4" s="29" t="inlineStr">
+      <c r="J4" s="39" t="inlineStr">
         <is>
           <t>农业资源与环境</t>
         </is>
       </c>
-      <c r="K4" s="29" t="inlineStr">
+      <c r="K4" s="39" t="inlineStr">
         <is>
           <t>口腔医学</t>
         </is>
       </c>
-      <c r="L4" s="29" t="inlineStr">
+      <c r="L4" s="39" t="inlineStr">
         <is>
           <t>战役学</t>
         </is>
       </c>
-      <c r="M4" s="29" t="inlineStr">
+      <c r="M4" s="39" t="inlineStr">
         <is>
           <t>农林经济管理</t>
         </is>
       </c>
-      <c r="N4" s="29" t="inlineStr">
+      <c r="N4" s="39" t="inlineStr">
         <is>
           <t>戏剧与影视学</t>
         </is>
@@ -2293,42 +2928,42 @@
           <t>法学</t>
         </is>
       </c>
-      <c r="D5" s="29" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>民族学</t>
         </is>
       </c>
-      <c r="H5" s="29" t="inlineStr">
+      <c r="H5" s="39" t="inlineStr">
         <is>
           <t>天文学</t>
         </is>
       </c>
-      <c r="I5" s="29" t="inlineStr">
+      <c r="I5" s="39" t="inlineStr">
         <is>
           <t>仪器科学与技术</t>
         </is>
       </c>
-      <c r="J5" s="29" t="inlineStr">
+      <c r="J5" s="39" t="inlineStr">
         <is>
           <t>植物保护</t>
         </is>
       </c>
-      <c r="K5" s="29" t="inlineStr">
+      <c r="K5" s="39" t="inlineStr">
         <is>
           <t>公共卫生与预防医学</t>
         </is>
       </c>
-      <c r="L5" s="29" t="inlineStr">
+      <c r="L5" s="39" t="inlineStr">
         <is>
           <t>战术学</t>
         </is>
       </c>
-      <c r="M5" s="29" t="inlineStr">
+      <c r="M5" s="39" t="inlineStr">
         <is>
           <t>公共管理</t>
         </is>
       </c>
-      <c r="N5" s="29" t="inlineStr">
+      <c r="N5" s="39" t="inlineStr">
         <is>
           <t>美术学</t>
         </is>
@@ -2340,42 +2975,42 @@
           <t>政治学</t>
         </is>
       </c>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="D6" s="39" t="inlineStr">
         <is>
           <t>马克思主义理论</t>
         </is>
       </c>
-      <c r="H6" s="29" t="inlineStr">
+      <c r="H6" s="39" t="inlineStr">
         <is>
           <t>地理学</t>
         </is>
       </c>
-      <c r="I6" s="29" t="inlineStr">
+      <c r="I6" s="39" t="inlineStr">
         <is>
           <t>材料科学与工程</t>
         </is>
       </c>
-      <c r="J6" s="29" t="inlineStr">
+      <c r="J6" s="39" t="inlineStr">
         <is>
           <t>畜牧学</t>
         </is>
       </c>
-      <c r="K6" s="29" t="inlineStr">
+      <c r="K6" s="39" t="inlineStr">
         <is>
           <t>中医学</t>
         </is>
       </c>
-      <c r="L6" s="29" t="inlineStr">
+      <c r="L6" s="39" t="inlineStr">
         <is>
           <t>军事指挥学</t>
         </is>
       </c>
-      <c r="M6" s="29" t="inlineStr">
+      <c r="M6" s="39" t="inlineStr">
         <is>
           <t>图书情报与档案管理</t>
         </is>
       </c>
-      <c r="N6" s="29" t="inlineStr">
+      <c r="N6" s="39" t="inlineStr">
         <is>
           <t>设计学</t>
         </is>
@@ -2387,32 +3022,32 @@
           <t>社会学</t>
         </is>
       </c>
-      <c r="D7" s="29" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>公安学</t>
         </is>
       </c>
-      <c r="H7" s="29" t="inlineStr">
+      <c r="H7" s="39" t="inlineStr">
         <is>
           <t>大气科学</t>
         </is>
       </c>
-      <c r="I7" s="29" t="inlineStr">
+      <c r="I7" s="39" t="inlineStr">
         <is>
           <t>冶金工程</t>
         </is>
       </c>
-      <c r="J7" s="29" t="inlineStr">
+      <c r="J7" s="39" t="inlineStr">
         <is>
           <t>兽医学</t>
         </is>
       </c>
-      <c r="K7" s="29" t="inlineStr">
+      <c r="K7" s="39" t="inlineStr">
         <is>
           <t>中西医结合</t>
         </is>
       </c>
-      <c r="L7" s="29" t="inlineStr">
+      <c r="L7" s="39" t="inlineStr">
         <is>
           <t>军队政治工作学</t>
         </is>
@@ -2424,27 +3059,27 @@
           <t>民族学</t>
         </is>
       </c>
-      <c r="H8" s="29" t="inlineStr">
+      <c r="H8" s="39" t="inlineStr">
         <is>
           <t>海洋科学</t>
         </is>
       </c>
-      <c r="I8" s="29" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="J8" s="29" t="inlineStr">
+      <c r="J8" s="39" t="inlineStr">
         <is>
           <t>林学</t>
         </is>
       </c>
-      <c r="K8" s="29" t="inlineStr">
+      <c r="K8" s="39" t="inlineStr">
         <is>
           <t>药学</t>
         </is>
       </c>
-      <c r="L8" s="29" t="inlineStr">
+      <c r="L8" s="39" t="inlineStr">
         <is>
           <t>军事管理学</t>
         </is>
@@ -2456,27 +3091,27 @@
           <t>马克思主义理论</t>
         </is>
       </c>
-      <c r="H9" s="29" t="inlineStr">
+      <c r="H9" s="39" t="inlineStr">
         <is>
           <t>地球物理学</t>
         </is>
       </c>
-      <c r="I9" s="29" t="inlineStr">
+      <c r="I9" s="39" t="inlineStr">
         <is>
           <t>电气工程</t>
         </is>
       </c>
-      <c r="J9" s="29" t="inlineStr">
+      <c r="J9" s="39" t="inlineStr">
         <is>
           <t>水产</t>
         </is>
       </c>
-      <c r="K9" s="29" t="inlineStr">
+      <c r="K9" s="39" t="inlineStr">
         <is>
           <t>中药学</t>
         </is>
       </c>
-      <c r="L9" s="29" t="inlineStr">
+      <c r="L9" s="39" t="inlineStr">
         <is>
           <t>军事后勤学</t>
         </is>
@@ -2488,27 +3123,27 @@
           <t>公安学</t>
         </is>
       </c>
-      <c r="H10" s="29" t="inlineStr">
+      <c r="H10" s="39" t="inlineStr">
         <is>
           <t>地质学</t>
         </is>
       </c>
-      <c r="I10" s="29" t="inlineStr">
+      <c r="I10" s="39" t="inlineStr">
         <is>
           <t>电子科学与技术</t>
         </is>
       </c>
-      <c r="J10" s="29" t="inlineStr">
+      <c r="J10" s="39" t="inlineStr">
         <is>
           <t>草学</t>
         </is>
       </c>
-      <c r="K10" s="29" t="inlineStr">
+      <c r="K10" s="39" t="inlineStr">
         <is>
           <t>特种医学</t>
         </is>
       </c>
-      <c r="L10" s="29" t="inlineStr">
+      <c r="L10" s="39" t="inlineStr">
         <is>
           <t>军事装备学</t>
         </is>
@@ -2520,22 +3155,22 @@
           <t>教育学</t>
         </is>
       </c>
-      <c r="H11" s="29" t="inlineStr">
+      <c r="H11" s="39" t="inlineStr">
         <is>
           <t>生物学</t>
         </is>
       </c>
-      <c r="I11" s="29" t="inlineStr">
+      <c r="I11" s="39" t="inlineStr">
         <is>
           <t>信息与通信工程</t>
         </is>
       </c>
-      <c r="K11" s="29" t="inlineStr">
+      <c r="K11" s="39" t="inlineStr">
         <is>
           <t>医学技术</t>
         </is>
       </c>
-      <c r="L11" s="29" t="inlineStr">
+      <c r="L11" s="39" t="inlineStr">
         <is>
           <t>军事训练学</t>
         </is>
@@ -2547,17 +3182,17 @@
           <t>心理学</t>
         </is>
       </c>
-      <c r="H12" s="29" t="inlineStr">
+      <c r="H12" s="39" t="inlineStr">
         <is>
           <t>系统科学</t>
         </is>
       </c>
-      <c r="I12" s="29" t="inlineStr">
+      <c r="I12" s="39" t="inlineStr">
         <is>
           <t>控制科学与工程</t>
         </is>
       </c>
-      <c r="K12" s="29" t="inlineStr">
+      <c r="K12" s="39" t="inlineStr">
         <is>
           <t>护理学</t>
         </is>
@@ -2569,12 +3204,12 @@
           <t>体育学</t>
         </is>
       </c>
-      <c r="H13" s="29" t="inlineStr">
+      <c r="H13" s="39" t="inlineStr">
         <is>
           <t>科学技术史</t>
         </is>
       </c>
-      <c r="I13" s="29" t="inlineStr">
+      <c r="I13" s="39" t="inlineStr">
         <is>
           <t>计算机科学与技术</t>
         </is>
@@ -2586,12 +3221,12 @@
           <t>中国语言文学</t>
         </is>
       </c>
-      <c r="H14" s="29" t="inlineStr">
+      <c r="H14" s="39" t="inlineStr">
         <is>
           <t>生态学</t>
         </is>
       </c>
-      <c r="I14" s="29" t="inlineStr">
+      <c r="I14" s="39" t="inlineStr">
         <is>
           <t>建筑学</t>
         </is>
@@ -2603,12 +3238,12 @@
           <t>外国语言文学</t>
         </is>
       </c>
-      <c r="H15" s="29" t="inlineStr">
+      <c r="H15" s="39" t="inlineStr">
         <is>
           <t>统计学</t>
         </is>
       </c>
-      <c r="I15" s="29" t="inlineStr">
+      <c r="I15" s="39" t="inlineStr">
         <is>
           <t>土木工程</t>
         </is>
@@ -2620,7 +3255,7 @@
           <t>新闻传播学</t>
         </is>
       </c>
-      <c r="I16" s="29" t="inlineStr">
+      <c r="I16" s="39" t="inlineStr">
         <is>
           <t>水利工程</t>
         </is>
@@ -2632,7 +3267,7 @@
           <t>考古学</t>
         </is>
       </c>
-      <c r="I17" s="29" t="inlineStr">
+      <c r="I17" s="39" t="inlineStr">
         <is>
           <t>测绘科学与技术</t>
         </is>
@@ -2644,7 +3279,7 @@
           <t>中国史</t>
         </is>
       </c>
-      <c r="I18" s="29" t="inlineStr">
+      <c r="I18" s="39" t="inlineStr">
         <is>
           <t>化学工程与技术</t>
         </is>
@@ -2656,7 +3291,7 @@
           <t>世界史</t>
         </is>
       </c>
-      <c r="I19" s="29" t="inlineStr">
+      <c r="I19" s="39" t="inlineStr">
         <is>
           <t>地质资源与地质工程</t>
         </is>
@@ -2668,7 +3303,7 @@
           <t>数学</t>
         </is>
       </c>
-      <c r="I20" s="29" t="inlineStr">
+      <c r="I20" s="39" t="inlineStr">
         <is>
           <t>矿业工程</t>
         </is>
@@ -2680,7 +3315,7 @@
           <t>物理学</t>
         </is>
       </c>
-      <c r="I21" s="29" t="inlineStr">
+      <c r="I21" s="39" t="inlineStr">
         <is>
           <t>石油与天然气工程</t>
         </is>
@@ -2692,7 +3327,7 @@
           <t>化学</t>
         </is>
       </c>
-      <c r="I22" s="29" t="inlineStr">
+      <c r="I22" s="39" t="inlineStr">
         <is>
           <t>纺织科学与工程</t>
         </is>
@@ -2704,7 +3339,7 @@
           <t>天文学</t>
         </is>
       </c>
-      <c r="I23" s="29" t="inlineStr">
+      <c r="I23" s="39" t="inlineStr">
         <is>
           <t>轻工技术与工程</t>
         </is>
@@ -2716,7 +3351,7 @@
           <t>地理学</t>
         </is>
       </c>
-      <c r="I24" s="29" t="inlineStr">
+      <c r="I24" s="39" t="inlineStr">
         <is>
           <t>交通运输工程</t>
         </is>
@@ -2728,7 +3363,7 @@
           <t>大气科学</t>
         </is>
       </c>
-      <c r="I25" s="29" t="inlineStr">
+      <c r="I25" s="39" t="inlineStr">
         <is>
           <t>船舶与海洋工程</t>
         </is>
@@ -2740,7 +3375,7 @@
           <t>海洋科学</t>
         </is>
       </c>
-      <c r="I26" s="29" t="inlineStr">
+      <c r="I26" s="39" t="inlineStr">
         <is>
           <t>航空宇航科学与技术</t>
         </is>
@@ -2752,7 +3387,7 @@
           <t>地球物理学</t>
         </is>
       </c>
-      <c r="I27" s="29" t="inlineStr">
+      <c r="I27" s="39" t="inlineStr">
         <is>
           <t>兵器科学与技术</t>
         </is>
@@ -2764,7 +3399,7 @@
           <t>地质学</t>
         </is>
       </c>
-      <c r="I28" s="29" t="inlineStr">
+      <c r="I28" s="39" t="inlineStr">
         <is>
           <t>核科学与技术</t>
         </is>
@@ -2776,7 +3411,7 @@
           <t>生物学</t>
         </is>
       </c>
-      <c r="I29" s="29" t="inlineStr">
+      <c r="I29" s="39" t="inlineStr">
         <is>
           <t>农业工程</t>
         </is>
@@ -2788,7 +3423,7 @@
           <t>系统科学</t>
         </is>
       </c>
-      <c r="I30" s="29" t="inlineStr">
+      <c r="I30" s="39" t="inlineStr">
         <is>
           <t>林业工程</t>
         </is>
@@ -2800,7 +3435,7 @@
           <t>科学技术史</t>
         </is>
       </c>
-      <c r="I31" s="29" t="inlineStr">
+      <c r="I31" s="39" t="inlineStr">
         <is>
           <t>环境科学与工程</t>
         </is>
@@ -2812,7 +3447,7 @@
           <t>生态学</t>
         </is>
       </c>
-      <c r="I32" s="29" t="inlineStr">
+      <c r="I32" s="39" t="inlineStr">
         <is>
           <t>生物医学工程</t>
         </is>
@@ -2824,7 +3459,7 @@
           <t>统计学</t>
         </is>
       </c>
-      <c r="I33" s="29" t="inlineStr">
+      <c r="I33" s="39" t="inlineStr">
         <is>
           <t>食品科学与工程</t>
         </is>
@@ -2836,7 +3471,7 @@
           <t>力学</t>
         </is>
       </c>
-      <c r="I34" s="29" t="inlineStr">
+      <c r="I34" s="39" t="inlineStr">
         <is>
           <t>城乡规划学</t>
         </is>
@@ -2848,7 +3483,7 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="I35" s="29" t="inlineStr">
+      <c r="I35" s="39" t="inlineStr">
         <is>
           <t>风景园林学</t>
         </is>
@@ -2860,7 +3495,7 @@
           <t>光学工程</t>
         </is>
       </c>
-      <c r="I36" s="29" t="inlineStr">
+      <c r="I36" s="39" t="inlineStr">
         <is>
           <t>软件工程</t>
         </is>
@@ -2872,7 +3507,7 @@
           <t>仪器科学与技术</t>
         </is>
       </c>
-      <c r="I37" s="29" t="inlineStr">
+      <c r="I37" s="39" t="inlineStr">
         <is>
           <t>生物工程</t>
         </is>
@@ -2884,7 +3519,7 @@
           <t>材料科学与工程</t>
         </is>
       </c>
-      <c r="I38" s="29" t="inlineStr">
+      <c r="I38" s="39" t="inlineStr">
         <is>
           <t>安全科学与工程</t>
         </is>
@@ -2896,7 +3531,7 @@
           <t>冶金工程</t>
         </is>
       </c>
-      <c r="I39" s="29" t="inlineStr">
+      <c r="I39" s="39" t="inlineStr">
         <is>
           <t>公安技术</t>
         </is>
@@ -2908,7 +3543,7 @@
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="I40" s="29" t="inlineStr">
+      <c r="I40" s="39" t="inlineStr">
         <is>
           <t>网络空间安全</t>
         </is>
@@ -3420,7 +4055,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3432,693 +4067,693 @@
   </sheetPr>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="inlineStr">
+      <c r="A1" s="39" t="inlineStr">
         <is>
           <t>数学科学学院</t>
         </is>
       </c>
-      <c r="G1" s="29" t="inlineStr">
+      <c r="G1" s="39" t="inlineStr">
         <is>
           <t>北京</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="39" t="inlineStr">
         <is>
           <t>物理学院</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="G2" s="39" t="inlineStr">
         <is>
           <t>天津</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>化学与分子工程学院</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>上海</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>生命科学学院</t>
         </is>
       </c>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="G4" s="39" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>地球与空间科学学院</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="39" t="inlineStr">
         <is>
           <t>河北</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="G6" s="39" t="inlineStr">
         <is>
           <t>山西</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="inlineStr">
+      <c r="A7" s="39" t="inlineStr">
         <is>
           <t>心理与认知科学学院</t>
         </is>
       </c>
-      <c r="G7" s="29" t="inlineStr">
+      <c r="G7" s="39" t="inlineStr">
         <is>
           <t>辽宁</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>建筑与景观设计学院</t>
         </is>
       </c>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="G8" s="39" t="inlineStr">
         <is>
           <t>吉林</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="inlineStr">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>信息科学技术学院</t>
         </is>
       </c>
-      <c r="G9" s="29" t="inlineStr">
+      <c r="G9" s="39" t="inlineStr">
         <is>
           <t>黑龙江</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="39" t="inlineStr">
         <is>
           <t>工学院</t>
         </is>
       </c>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="G10" s="39" t="inlineStr">
         <is>
           <t>江苏</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="inlineStr">
+      <c r="A11" s="39" t="inlineStr">
         <is>
           <t>王选计算机研究所</t>
         </is>
       </c>
-      <c r="G11" s="29" t="inlineStr">
+      <c r="G11" s="39" t="inlineStr">
         <is>
           <t>浙江</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="inlineStr">
+      <c r="A12" s="39" t="inlineStr">
         <is>
           <t>软件与微电子学院</t>
         </is>
       </c>
-      <c r="G12" s="29" t="inlineStr">
+      <c r="G12" s="39" t="inlineStr">
         <is>
           <t>安徽</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="inlineStr">
+      <c r="A13" s="39" t="inlineStr">
         <is>
           <t>环境科学与工程学院</t>
         </is>
       </c>
-      <c r="G13" s="29" t="inlineStr">
+      <c r="G13" s="39" t="inlineStr">
         <is>
           <t>福建</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="inlineStr">
+      <c r="A14" s="39" t="inlineStr">
         <is>
           <t>软件工程国家工程研究中心</t>
         </is>
       </c>
-      <c r="G14" s="29" t="inlineStr">
+      <c r="G14" s="39" t="inlineStr">
         <is>
           <t>江西</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="inlineStr">
+      <c r="A15" s="39" t="inlineStr">
         <is>
           <t>中国语言文学系</t>
         </is>
       </c>
-      <c r="G15" s="29" t="inlineStr">
+      <c r="G15" s="39" t="inlineStr">
         <is>
           <t>山东</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29" t="inlineStr">
+      <c r="A16" s="39" t="inlineStr">
         <is>
           <t>历史学系</t>
         </is>
       </c>
-      <c r="G16" s="29" t="inlineStr">
+      <c r="G16" s="39" t="inlineStr">
         <is>
           <t>河南</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="inlineStr">
+      <c r="A17" s="39" t="inlineStr">
         <is>
           <t>考古文博学院</t>
         </is>
       </c>
-      <c r="G17" s="29" t="inlineStr">
+      <c r="G17" s="39" t="inlineStr">
         <is>
           <t>湖北</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="inlineStr">
+      <c r="A18" s="39" t="inlineStr">
         <is>
           <t>哲学系</t>
         </is>
       </c>
-      <c r="G18" s="29" t="inlineStr">
+      <c r="G18" s="39" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="inlineStr">
+      <c r="A19" s="39" t="inlineStr">
         <is>
           <t>外国语学院</t>
         </is>
       </c>
-      <c r="G19" s="29" t="inlineStr">
+      <c r="G19" s="39" t="inlineStr">
         <is>
           <t>广东</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="inlineStr">
+      <c r="A20" s="39" t="inlineStr">
         <is>
           <t>艺术学院</t>
         </is>
       </c>
-      <c r="G20" s="29" t="inlineStr">
+      <c r="G20" s="39" t="inlineStr">
         <is>
           <t>海南</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="29" t="inlineStr">
+      <c r="A21" s="39" t="inlineStr">
         <is>
           <t>对外汉语教育学院</t>
         </is>
       </c>
-      <c r="G21" s="29" t="inlineStr">
+      <c r="G21" s="39" t="inlineStr">
         <is>
           <t>四川</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29" t="inlineStr">
+      <c r="A22" s="39" t="inlineStr">
         <is>
           <t>歌剧研究院</t>
         </is>
       </c>
-      <c r="G22" s="29" t="inlineStr">
+      <c r="G22" s="39" t="inlineStr">
         <is>
           <t>贵州</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="inlineStr">
+      <c r="A23" s="39" t="inlineStr">
         <is>
           <t>国际关系学院</t>
         </is>
       </c>
-      <c r="G23" s="29" t="inlineStr">
+      <c r="G23" s="39" t="inlineStr">
         <is>
           <t>云南</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29" t="inlineStr">
+      <c r="A24" s="39" t="inlineStr">
         <is>
           <t>法学院</t>
         </is>
       </c>
-      <c r="G24" s="29" t="inlineStr">
+      <c r="G24" s="39" t="inlineStr">
         <is>
           <t>陕西</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="29" t="inlineStr">
+      <c r="A25" s="39" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
       </c>
-      <c r="G25" s="29" t="inlineStr">
+      <c r="G25" s="39" t="inlineStr">
         <is>
           <t>甘肃</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29" t="inlineStr">
+      <c r="A26" s="39" t="inlineStr">
         <is>
           <t>社会学系</t>
         </is>
       </c>
-      <c r="G26" s="29" t="inlineStr">
+      <c r="G26" s="39" t="inlineStr">
         <is>
           <t>青海</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="29" t="inlineStr">
+      <c r="A27" s="39" t="inlineStr">
         <is>
           <t>政府管理学院</t>
         </is>
       </c>
-      <c r="G27" s="29" t="inlineStr">
+      <c r="G27" s="39" t="inlineStr">
         <is>
           <t>台湾</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29" t="inlineStr">
+      <c r="A28" s="39" t="inlineStr">
         <is>
           <t>马克思主义学院</t>
         </is>
       </c>
-      <c r="G28" s="29" t="inlineStr">
+      <c r="G28" s="39" t="inlineStr">
         <is>
           <t>内蒙古</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="29" t="inlineStr">
+      <c r="A29" s="39" t="inlineStr">
         <is>
           <t>教育学院</t>
         </is>
       </c>
-      <c r="G29" s="29" t="inlineStr">
+      <c r="G29" s="39" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29" t="inlineStr">
+      <c r="A30" s="39" t="inlineStr">
         <is>
           <t>新闻与传播学院</t>
         </is>
       </c>
-      <c r="G30" s="29" t="inlineStr">
+      <c r="G30" s="39" t="inlineStr">
         <is>
           <t>西藏</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="29" t="inlineStr">
+      <c r="A31" s="39" t="inlineStr">
         <is>
           <t>体育教研部</t>
         </is>
       </c>
-      <c r="G31" s="29" t="inlineStr">
+      <c r="G31" s="39" t="inlineStr">
         <is>
           <t>宁夏</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="inlineStr">
+      <c r="A32" s="39" t="inlineStr">
         <is>
           <t>新媒体研究院</t>
         </is>
       </c>
-      <c r="G32" s="29" t="inlineStr">
+      <c r="G32" s="39" t="inlineStr">
         <is>
           <t>新疆</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="29" t="inlineStr">
+      <c r="A33" s="39" t="inlineStr">
         <is>
           <t>教育财政科学研究所</t>
         </is>
       </c>
-      <c r="G33" s="29" t="inlineStr">
+      <c r="G33" s="39" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="29" t="inlineStr">
+      <c r="A34" s="39" t="inlineStr">
         <is>
           <t>经济学院</t>
         </is>
       </c>
-      <c r="G34" s="29" t="inlineStr">
+      <c r="G34" s="39" t="inlineStr">
         <is>
           <t>澳门</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="29" t="inlineStr">
+      <c r="A35" s="39" t="inlineStr">
         <is>
           <t>光华管理学院</t>
         </is>
       </c>
-      <c r="G35" s="29" t="inlineStr">
+      <c r="G35" s="39" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="29" t="inlineStr">
+      <c r="A36" s="39" t="inlineStr">
         <is>
           <t>人口研究所</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="29" t="inlineStr">
+      <c r="A37" s="39" t="inlineStr">
         <is>
           <t>国家发展研究院</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="29" t="inlineStr">
+      <c r="A38" s="39" t="inlineStr">
         <is>
           <t>基础医学院</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="29" t="inlineStr">
+      <c r="A39" s="39" t="inlineStr">
         <is>
           <t>药学院</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="29" t="inlineStr">
+      <c r="A40" s="39" t="inlineStr">
         <is>
           <t>公共卫生学院</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="29" t="inlineStr">
+      <c r="A41" s="39" t="inlineStr">
         <is>
           <t>护理学院</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="29" t="inlineStr">
+      <c r="A42" s="39" t="inlineStr">
         <is>
           <t>医学人文学院</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="29" t="inlineStr">
+      <c r="A43" s="39" t="inlineStr">
         <is>
           <t>医学继续教育学院</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="29" t="inlineStr">
+      <c r="A44" s="39" t="inlineStr">
         <is>
           <t>第一医院</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="29" t="inlineStr">
+      <c r="A45" s="39" t="inlineStr">
         <is>
           <t>人民医院</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="29" t="inlineStr">
+      <c r="A46" s="39" t="inlineStr">
         <is>
           <t>第三医院</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="29" t="inlineStr">
+      <c r="A47" s="39" t="inlineStr">
         <is>
           <t>口腔医院</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="29" t="inlineStr">
+      <c r="A48" s="39" t="inlineStr">
         <is>
           <t>北京肿瘤医院</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="29" t="inlineStr">
+      <c r="A49" s="39" t="inlineStr">
         <is>
           <t>第六医院</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="29" t="inlineStr">
+      <c r="A50" s="39" t="inlineStr">
         <is>
           <t>深圳医院</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="29" t="inlineStr">
+      <c r="A51" s="39" t="inlineStr">
         <is>
           <t>首钢医院</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="29" t="inlineStr">
+      <c r="A52" s="39" t="inlineStr">
         <is>
           <t>国际医院</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="29" t="inlineStr">
+      <c r="A53" s="39" t="inlineStr">
         <is>
           <t>滨海医院</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="29" t="inlineStr">
+      <c r="A54" s="39" t="inlineStr">
         <is>
           <t>元培学院</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="29" t="inlineStr">
+      <c r="A55" s="39" t="inlineStr">
         <is>
           <t>燕京学堂</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="29" t="inlineStr">
+      <c r="A56" s="39" t="inlineStr">
         <is>
           <t>先进技术研究院</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="29" t="inlineStr">
+      <c r="A57" s="39" t="inlineStr">
         <is>
           <t>前沿交叉学科研究院</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="29" t="inlineStr">
+      <c r="A58" s="39" t="inlineStr">
         <is>
           <t>中国社会科学调查中心</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="29" t="inlineStr">
+      <c r="A59" s="39" t="inlineStr">
         <is>
           <t>分子医学研究所</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="29" t="inlineStr">
+      <c r="A60" s="39" t="inlineStr">
         <is>
           <t>科维理天文研究所</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="29" t="inlineStr">
+      <c r="A61" s="39" t="inlineStr">
         <is>
           <t>核科学与技术研究院</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="29" t="inlineStr">
+      <c r="A62" s="39" t="inlineStr">
         <is>
           <t>北京国际数学研究中心</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="29" t="inlineStr">
+      <c r="A63" s="39" t="inlineStr">
         <is>
           <t>海洋研究院</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="29" t="inlineStr">
+      <c r="A64" s="39" t="inlineStr">
         <is>
           <t>现代农学院</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="29" t="inlineStr">
+      <c r="A65" s="39" t="inlineStr">
         <is>
           <t>人文社会科学研究院</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="29" t="inlineStr">
+      <c r="A66" s="39" t="inlineStr">
         <is>
           <t>信息工程学院</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="29" t="inlineStr">
+      <c r="A67" s="39" t="inlineStr">
         <is>
           <t>化学生物学与生物技术学院</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="29" t="inlineStr">
+      <c r="A68" s="39" t="inlineStr">
         <is>
           <t>环境与能源学院</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="29" t="inlineStr">
+      <c r="A69" s="39" t="inlineStr">
         <is>
           <t>城市规划与设计学院</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="29" t="inlineStr">
+      <c r="A70" s="39" t="inlineStr">
         <is>
           <t>新材料学院</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="29" t="inlineStr">
+      <c r="A71" s="39" t="inlineStr">
         <is>
           <t>汇丰商学院</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="29" t="inlineStr">
+      <c r="A72" s="39" t="inlineStr">
         <is>
           <t>国际法学院</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="29" t="inlineStr">
+      <c r="A73" s="39" t="inlineStr">
         <is>
           <t>人文社会科学学院</t>
         </is>
@@ -4126,6 +4761,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/tmp/temp.xlsx
+++ b/tmp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYZ_folder\ChallengeCup-Excelerate\A_have_ignored_\Excelerate_backend_original_code\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A9192E2-7589-4388-88CB-5F355198CCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{797024A8-EDE9-4864-A58D-3F457FBD2603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2990" windowWidth="10800" windowHeight="7810"/>
+    <workbookView xWindow="340" yWindow="2990" windowWidth="10800" windowHeight="7810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,14 +121,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>

--- a/tmp/temp.xlsx
+++ b/tmp/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYZ_folder\ChallengeCup-Excelerate\A_have_ignored_\Excelerate_backend_original_code\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{797024A8-EDE9-4864-A58D-3F457FBD2603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7220879-3E1F-4C62-B3DE-E0FF068CA52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="2990" windowWidth="10800" windowHeight="7810"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>请以学院为单位汇总完成此Excel后提交至pku62747382@163.com；文件命名方式：五四青年科学奖+院系名称</t>
   </si>
@@ -92,24 +92,6 @@
   </si>
   <si>
     <t>指导教师电子邮箱</t>
-  </si>
-  <si>
-    <t>五四青年科学奖</t>
-  </si>
-  <si>
-    <t>历史学</t>
-  </si>
-  <si>
-    <t>注：</t>
-  </si>
-  <si>
-    <t>1. 每份作品需用粗外侧框线框进行标记；</t>
-  </si>
-  <si>
-    <t>2. 如有多名作者则所有作者信息都需填写；</t>
-  </si>
-  <si>
-    <t>3. 出生年月格式（例）：1999.02。</t>
   </si>
 </sst>
 </file>
@@ -128,7 +110,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -431,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -583,46 +564,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="6" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:V2"/>

--- a/tmp/temp.xlsx
+++ b/tmp/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYZ_folder\ChallengeCup-Excelerate\A_have_ignored_\Excelerate_backend_original_code\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{832881A2-D5D3-4760-9558-AD7CC5D5B0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CBAD77-3351-45A4-B467-E80454F9580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2177" yWindow="2177" windowWidth="16589" windowHeight="10783" tabRatio="726"/>
   </bookViews>

--- a/tmp/temp.xlsx
+++ b/tmp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYZ_folder\ChallengeCup-Excelerate\A_have_ignored_\Excelerate_backend_original_code\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CBAD77-3351-45A4-B467-E80454F9580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCFA1697-29A1-4A37-9C2D-E2E6BF83AC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2177" yWindow="2177" windowWidth="16589" windowHeight="10783" tabRatio="726"/>
+    <workbookView xWindow="1453" yWindow="1453" windowWidth="18031" windowHeight="11745" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="五四青年科学奖立项申请表" sheetId="1" r:id="rId1"/>
@@ -1573,28 +1573,28 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.734375" customWidth="1"/>
-    <col min="2" max="2" width="47.62890625" customWidth="1"/>
-    <col min="3" max="3" width="15.15625" customWidth="1"/>
-    <col min="4" max="4" width="23.15625" customWidth="1"/>
-    <col min="5" max="5" width="9.47265625" customWidth="1"/>
-    <col min="6" max="6" width="23.15625" customWidth="1"/>
-    <col min="7" max="7" width="11.734375" customWidth="1"/>
-    <col min="8" max="8" width="25.15625" customWidth="1"/>
-    <col min="9" max="9" width="11.3671875" customWidth="1"/>
-    <col min="11" max="11" width="11.3671875" customWidth="1"/>
-    <col min="12" max="12" width="12.47265625" customWidth="1"/>
-    <col min="13" max="13" width="21.47265625" customWidth="1"/>
-    <col min="14" max="14" width="12.47265625" customWidth="1"/>
-    <col min="15" max="15" width="15.734375" customWidth="1"/>
-    <col min="16" max="16" width="30.7890625" customWidth="1"/>
+    <col min="1" max="1" width="14.71875" customWidth="1"/>
+    <col min="2" max="2" width="47.609375" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.71875" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.38671875" customWidth="1"/>
+    <col min="11" max="11" width="11.38671875" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.71875" customWidth="1"/>
+    <col min="16" max="16" width="30.83203125" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="22" width="18.89453125" customWidth="1"/>
+    <col min="21" max="22" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="27.65" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>3</v>
       </c>
@@ -2008,19 +2008,19 @@
       <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.15625" customWidth="1"/>
-    <col min="2" max="2" width="40.1015625" customWidth="1"/>
-    <col min="3" max="3" width="15.15625" customWidth="1"/>
-    <col min="4" max="4" width="19.15625" customWidth="1"/>
-    <col min="5" max="5" width="23.15625" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="25.15625" customWidth="1"/>
-    <col min="12" max="12" width="15.15625" customWidth="1"/>
-    <col min="15" max="15" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="19.89453125" customWidth="1"/>
+    <col min="20" max="21" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2048,7 +2048,7 @@
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
         <v>52</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="27.65" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="9" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2325,18 +2325,18 @@
       <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="34.15625" customWidth="1"/>
-    <col min="3" max="3" width="15.15625" customWidth="1"/>
-    <col min="4" max="4" width="9.47265625" customWidth="1"/>
-    <col min="5" max="5" width="23.15625" customWidth="1"/>
-    <col min="6" max="6" width="11.734375" customWidth="1"/>
-    <col min="7" max="7" width="25.15625" customWidth="1"/>
-    <col min="12" max="12" width="15.15625" customWidth="1"/>
-    <col min="15" max="15" width="17.15625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.71875" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="15.89453125" customWidth="1"/>
+    <col min="20" max="21" width="15.88671875" customWidth="1"/>
     <col min="22" max="22" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2365,7 +2365,7 @@
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:21" ht="23" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="23.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="27.65" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2666,15 +2666,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.15625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7890625" customWidth="1"/>
-    <col min="10" max="10" width="15.1015625" customWidth="1"/>
-    <col min="11" max="11" width="17.89453125" customWidth="1"/>
-    <col min="12" max="12" width="18.3671875" customWidth="1"/>
-    <col min="13" max="13" width="15.62890625" customWidth="1"/>
-    <col min="14" max="14" width="12.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.38671875" customWidth="1"/>
+    <col min="13" max="13" width="15.609375" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -3624,7 +3624,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
